--- a/InputData/trans/VTStFES/Veh Techs Subject to Fuel Econ Std.xlsx
+++ b/InputData/trans/VTStFES/Veh Techs Subject to Fuel Econ Std.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\VTStFES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/trans/vtstfes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1318614-CC89-B24C-A91B-2CF2DE2DF21D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="25875" windowHeight="10815"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25880" windowHeight="10820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,13 +163,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,6 +264,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,6 +316,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,19 +508,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="4">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -492,82 +531,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -579,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -587,13 +626,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="8" width="16.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="8" width="16.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -619,7 +658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -645,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -671,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -697,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -723,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -749,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>

--- a/InputData/trans/VTStFES/Veh Techs Subject to Fuel Econ Std.xlsx
+++ b/InputData/trans/VTStFES/Veh Techs Subject to Fuel Econ Std.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/trans/vtstfes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/vtstfes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1318614-CC89-B24C-A91B-2CF2DE2DF21D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E01358-BF0A-4049-BF68-C44FFBE033DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25880" windowHeight="10820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
